--- a/biology/Médecine/Testostérone_(médicament)/Testostérone_(médicament).xlsx
+++ b/biology/Médecine/Testostérone_(médicament)/Testostérone_(médicament).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Testost%C3%A9rone_(m%C3%A9dicament)</t>
+          <t>Testostérone_(médicament)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La testostérone  est un médicament et une hormone stéroïde naturelle[1].
+La testostérone  est un médicament et une hormone stéroïde naturelle.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Testost%C3%A9rone_(m%C3%A9dicament)</t>
+          <t>Testostérone_(médicament)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est utilisée pour traiter l' hypogonadisme masculin, la dysphorie de genre et certains types de cancer du sein[1],[2]. Elle peut également être utilisé pour augmenter la capacité athlétique sous forme de dopage .On ne sait pas exactement si l'utilisation de la testostérone pour remédier aux faibles niveaux dus au vieillissement est bénéfique ou nocive[3]. La testostérone peut être utilisée sous forme de gel ou de patch à appliquer sur la peau, à injecter dans un muscle, à placer dans la joue ou à prendre par la bouche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée pour traiter l' hypogonadisme masculin, la dysphorie de genre et certains types de cancer du sein,. Elle peut également être utilisé pour augmenter la capacité athlétique sous forme de dopage .On ne sait pas exactement si l'utilisation de la testostérone pour remédier aux faibles niveaux dus au vieillissement est bénéfique ou nocive. La testostérone peut être utilisée sous forme de gel ou de patch à appliquer sur la peau, à injecter dans un muscle, à placer dans la joue ou à prendre par la bouche.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Testost%C3%A9rone_(m%C3%A9dicament)</t>
+          <t>Testostérone_(médicament)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants de la testostérone comprennent l'acné, l'enflure et l'hypertrophie mammaire chez les hommes [1], les effets secondaires graves peuvent inclure une toxicité hépatique, des maladies cardiaques et des changements de comportement[1]. Les femmes et les enfants exposés peuvent développer une masculinisation[1]. Il est recommandé aux personnes atteintes d'un cancer de la prostate de ne pas utiliser le médicament[1]. Il peut être nocif pour le bébé s'il est utilisé pendant la grossesse ou l'allaitement[1]. La testostérone appartient à la famille des androgènes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants de la testostérone comprennent l'acné, l'enflure et l'hypertrophie mammaire chez les hommes , les effets secondaires graves peuvent inclure une toxicité hépatique, des maladies cardiaques et des changements de comportement. Les femmes et les enfants exposés peuvent développer une masculinisation. Il est recommandé aux personnes atteintes d'un cancer de la prostate de ne pas utiliser le médicament. Il peut être nocif pour le bébé s'il est utilisé pendant la grossesse ou l'allaitement. La testostérone appartient à la famille des androgènes.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Testost%C3%A9rone_(m%C3%A9dicament)</t>
+          <t>Testostérone_(médicament)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après une étude sur 20 ans, les hommes utilisant une thérapie de remplacement de la testostérone présentaient une mortalité par cancer de la prostate plus faible que les non-utilisateurs d'environ 50 %[4]. De plus, les maladies cardiovasculaires et la mortalité toutes causes confondues étaient légèrement inférieures à celles des non-utilisateurs[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après une étude sur 20 ans, les hommes utilisant une thérapie de remplacement de la testostérone présentaient une mortalité par cancer de la prostate plus faible que les non-utilisateurs d'environ 50 %. De plus, les maladies cardiovasculaires et la mortalité toutes causes confondues étaient légèrement inférieures à celles des non-utilisateurs.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Testost%C3%A9rone_(m%C3%A9dicament)</t>
+          <t>Testostérone_(médicament)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La testostérone est isolée pour la première fois en 1935 et son utilisation médicale est approuvée en 1939[5],[6]. Les taux d'utilisation sont multipliés par trois aux États-Unis entre 2001 et 2011[7]. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé[8]. Il est disponible en tant que médicament générique[1]. Le prix dépend de la dose et de la forme du produit[9]. En 2017, c'était le 132e médicament le plus couramment prescrit aux États-Unis, avec plus de cinq millions d'ordonnances[10],[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La testostérone est isolée pour la première fois en 1935 et son utilisation médicale est approuvée en 1939,. Les taux d'utilisation sont multipliés par trois aux États-Unis entre 2001 et 2011. Il figure sur la liste des médicaments essentiels de l'Organisation mondiale de la santé. Il est disponible en tant que médicament générique. Le prix dépend de la dose et de la forme du produit. En 2017, c'était le 132e médicament le plus couramment prescrit aux États-Unis, avec plus de cinq millions d'ordonnances,.
 </t>
         </is>
       </c>
